--- a/metrics/R2/average & upto/Angina.xlsx
+++ b/metrics/R2/average & upto/Angina.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6223099248733974</v>
+        <v>0.5507270976429873</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6223099248733973</v>
+        <v>0.5507270976429873</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6223099248733973</v>
+        <v>0.5507270976429873</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.989133216338231</v>
+        <v>0.8871165118318782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9887937101970645</v>
+        <v>0.8886346114437896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9891027268008041</v>
+        <v>0.8865704262814006</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9885911604129689</v>
+        <v>0.8800567386444278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9885371368881396</v>
+        <v>0.878368013769034</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9885011255918172</v>
+        <v>0.8786214789983566</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9540448297747847</v>
+        <v>0.8062995075581784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9553366534609746</v>
+        <v>0.8204698275351224</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9596073019180567</v>
+        <v>0.8101422092931898</v>
       </c>
     </row>
   </sheetData>
